--- a/data/trans_orig/P07B_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P07B_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84F88D64-656A-42ED-8860-C7C7AF3B01A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{727CC5CB-D103-4848-ABFB-B4D621DEC5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F1678AD1-F7A7-43F7-97D6-20AD509C6053}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{34B4C454-7CB9-40D2-89A6-A448E31650DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="282">
   <si>
     <t>Población según salud mental autopercibida en 2023 (Tasa respuesta: 99,99%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,31%</t>
+    <t>5,27%</t>
   </si>
   <si>
     <t>1,29%</t>
@@ -86,7 +86,7 @@
     <t>0,27%</t>
   </si>
   <si>
-    <t>4,2%</t>
+    <t>4,09%</t>
   </si>
   <si>
     <t>1,25%</t>
@@ -95,7 +95,7 @@
     <t>0,32%</t>
   </si>
   <si>
-    <t>3,36%</t>
+    <t>3,57%</t>
   </si>
   <si>
     <t>Regular</t>
@@ -104,28 +104,28 @@
     <t>6,27%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
   </si>
   <si>
     <t>8,66%</t>
   </si>
   <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
   </si>
   <si>
     <t>Buena</t>
@@ -134,28 +134,28 @@
     <t>35,01%</t>
   </si>
   <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
   </si>
   <si>
     <t>42,17%</t>
   </si>
   <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
   </si>
   <si>
     <t>39,03%</t>
   </si>
   <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
   </si>
   <si>
     <t>Muy buena</t>
@@ -164,28 +164,28 @@
     <t>38,0%</t>
   </si>
   <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
   </si>
   <si>
     <t>36,19%</t>
   </si>
   <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
   </si>
   <si>
     <t>36,99%</t>
   </si>
   <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
   </si>
   <si>
     <t>Excelente</t>
@@ -194,28 +194,28 @@
     <t>19,51%</t>
   </si>
   <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
   </si>
   <si>
     <t>11,68%</t>
   </si>
   <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
   </si>
   <si>
     <t>15,11%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
   </si>
   <si>
     <t>100%</t>
@@ -227,7 +227,7 @@
     <t>1,5%</t>
   </si>
   <si>
-    <t>0,76%</t>
+    <t>0,75%</t>
   </si>
   <si>
     <t>3,04%</t>
@@ -236,652 +236,649 @@
     <t>1,45%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>5,26%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
   </si>
   <si>
     <t>7,03%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
   </si>
   <si>
     <t>44,23%</t>
   </si>
   <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
   </si>
   <si>
     <t>47,27%</t>
   </si>
   <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
   </si>
   <si>
     <t>45,85%</t>
   </si>
   <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
   </si>
   <si>
     <t>31,31%</t>
   </si>
   <si>
-    <t>35,44%</t>
+    <t>35,71%</t>
   </si>
   <si>
     <t>31,02%</t>
   </si>
   <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
   </si>
   <si>
     <t>32,25%</t>
   </si>
   <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
   </si>
   <si>
     <t>15,74%</t>
   </si>
   <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
   </si>
   <si>
     <t>11,86%</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
+    <t>12,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1296,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A2E0A3-B76D-4F77-B320-F38B1C828ED0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA88DFF-5D0C-4D5C-9DBD-5549BAC5BB12}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2051,13 +2048,13 @@
         <v>13475</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -2066,13 +2063,13 @@
         <v>20367</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2087,13 +2084,13 @@
         <v>39505</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>133</v>
@@ -2102,13 +2099,13 @@
         <v>84009</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>175</v>
@@ -2117,13 +2114,13 @@
         <v>123515</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,13 +2135,13 @@
         <v>441163</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>708</v>
@@ -2153,13 +2150,13 @@
         <v>471337</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>1131</v>
@@ -2168,13 +2165,13 @@
         <v>912500</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,13 +2186,13 @@
         <v>366114</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>472</v>
@@ -2204,13 +2201,13 @@
         <v>339973</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>818</v>
@@ -2219,13 +2216,13 @@
         <v>706087</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,13 +2237,13 @@
         <v>185574</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>181</v>
@@ -2255,13 +2252,13 @@
         <v>150680</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>325</v>
@@ -2270,13 +2267,13 @@
         <v>336254</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,7 +2329,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2344,13 +2341,13 @@
         <v>9008</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -2359,13 +2356,13 @@
         <v>6728</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -2374,13 +2371,13 @@
         <v>15736</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2392,13 @@
         <v>43047</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>90</v>
@@ -2410,13 +2407,13 @@
         <v>68603</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>129</v>
@@ -2425,13 +2422,13 @@
         <v>111650</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,13 +2443,13 @@
         <v>282769</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>478</v>
@@ -2461,13 +2458,13 @@
         <v>434354</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>766</v>
@@ -2476,13 +2473,13 @@
         <v>717123</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,13 +2494,13 @@
         <v>258641</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>373</v>
@@ -2512,13 +2509,13 @@
         <v>270172</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>609</v>
@@ -2527,13 +2524,13 @@
         <v>528813</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,13 +2545,13 @@
         <v>135306</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>96</v>
@@ -2563,13 +2560,13 @@
         <v>94514</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>201</v>
@@ -2578,13 +2575,13 @@
         <v>229820</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,7 +2637,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2652,13 +2649,13 @@
         <v>8783</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>27</v>
@@ -2667,13 +2664,13 @@
         <v>21534</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>38</v>
@@ -2682,13 +2679,13 @@
         <v>30317</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2700,13 @@
         <v>65835</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>159</v>
@@ -2718,13 +2715,13 @@
         <v>119888</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>230</v>
@@ -2733,13 +2730,13 @@
         <v>185723</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,13 +2751,13 @@
         <v>480224</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H30" s="7">
         <v>780</v>
@@ -2769,13 +2766,13 @@
         <v>559295</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M30" s="7">
         <v>1300</v>
@@ -2784,13 +2781,13 @@
         <v>1039520</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>128</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,13 +2802,13 @@
         <v>285275</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H31" s="7">
         <v>455</v>
@@ -2820,13 +2817,13 @@
         <v>329519</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M31" s="7">
         <v>756</v>
@@ -2835,13 +2832,13 @@
         <v>614794</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,13 +2853,13 @@
         <v>125286</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H32" s="7">
         <v>141</v>
@@ -2871,13 +2868,13 @@
         <v>120196</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M32" s="7">
         <v>244</v>
@@ -2886,13 +2883,13 @@
         <v>245482</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,13 +2957,13 @@
         <v>34175</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H34" s="7">
         <v>80</v>
@@ -2975,13 +2972,13 @@
         <v>52406</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M34" s="7">
         <v>119</v>
@@ -2993,10 +2990,10 @@
         <v>11</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>159</v>
+        <v>245</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>68</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +3008,13 @@
         <v>181828</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H35" s="7">
         <v>482</v>
@@ -3026,7 +3023,7 @@
         <v>325475</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>251</v>
@@ -3113,7 +3110,7 @@
         <v>1138918</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>265</v>
@@ -3200,7 +3197,7 @@
         <v>280</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>281</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,7 +3253,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P07B_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P07B_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{727CC5CB-D103-4848-ABFB-B4D621DEC5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F85D2388-A5D5-44E5-BFEB-C429FEE6104A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{34B4C454-7CB9-40D2-89A6-A448E31650DC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E51E4D2-F95A-4EDC-A940-79BA63953AD3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mala</t>
@@ -221,7 +221,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,5%</t>
@@ -359,7 +359,7 @@
     <t>14,52%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,66%</t>
@@ -485,7 +485,7 @@
     <t>17,78%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>1,24%</t>
@@ -1293,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA88DFF-5D0C-4D5C-9DBD-5549BAC5BB12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC305D46-053C-4E6C-8B85-1121EACD0DE1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P07B_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P07B_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F85D2388-A5D5-44E5-BFEB-C429FEE6104A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA420FED-2B43-441B-B50F-33981D21B241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E51E4D2-F95A-4EDC-A940-79BA63953AD3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{430BC5AD-E525-4BEA-87E8-E5C7408AA3DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="283">
   <si>
     <t>Población según salud mental autopercibida en 2023 (Tasa respuesta: 99,99%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,27%</t>
+    <t>6,31%</t>
   </si>
   <si>
     <t>1,29%</t>
@@ -86,7 +86,7 @@
     <t>0,27%</t>
   </si>
   <si>
-    <t>4,09%</t>
+    <t>4,2%</t>
   </si>
   <si>
     <t>1,25%</t>
@@ -95,7 +95,7 @@
     <t>0,32%</t>
   </si>
   <si>
-    <t>3,57%</t>
+    <t>3,36%</t>
   </si>
   <si>
     <t>Regular</t>
@@ -104,781 +104,784 @@
     <t>6,27%</t>
   </si>
   <si>
-    <t>2,67%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>Buena</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>Muy buena</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>Excelente</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
   </si>
   <si>
     <t>13,31%</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>Buena</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>Muy buena</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>Excelente</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>12,62%</t>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1293,7 +1296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC305D46-053C-4E6C-8B85-1121EACD0DE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA02828C-E719-442A-BC69-1CFB60F01FCF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2048,13 +2051,13 @@
         <v>13475</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -2063,13 +2066,13 @@
         <v>20367</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2084,13 +2087,13 @@
         <v>39505</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>133</v>
@@ -2099,13 +2102,13 @@
         <v>84009</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>175</v>
@@ -2114,13 +2117,13 @@
         <v>123515</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,13 +2138,13 @@
         <v>441163</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>708</v>
@@ -2150,13 +2153,13 @@
         <v>471337</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>1131</v>
@@ -2165,13 +2168,13 @@
         <v>912500</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,13 +2189,13 @@
         <v>366114</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>472</v>
@@ -2201,13 +2204,13 @@
         <v>339973</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>818</v>
@@ -2216,13 +2219,13 @@
         <v>706087</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,13 +2240,13 @@
         <v>185574</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>181</v>
@@ -2252,13 +2255,13 @@
         <v>150680</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>325</v>
@@ -2267,13 +2270,13 @@
         <v>336254</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,7 +2332,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2341,13 +2344,13 @@
         <v>9008</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -2356,13 +2359,13 @@
         <v>6728</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -2371,13 +2374,13 @@
         <v>15736</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,13 +2395,13 @@
         <v>43047</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H23" s="7">
         <v>90</v>
@@ -2407,13 +2410,13 @@
         <v>68603</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>129</v>
@@ -2422,13 +2425,13 @@
         <v>111650</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,13 +2446,13 @@
         <v>282769</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H24" s="7">
         <v>478</v>
@@ -2458,13 +2461,13 @@
         <v>434354</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M24" s="7">
         <v>766</v>
@@ -2473,13 +2476,13 @@
         <v>717123</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,13 +2497,13 @@
         <v>258641</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H25" s="7">
         <v>373</v>
@@ -2509,13 +2512,13 @@
         <v>270172</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M25" s="7">
         <v>609</v>
@@ -2524,13 +2527,13 @@
         <v>528813</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,13 +2548,13 @@
         <v>135306</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H26" s="7">
         <v>96</v>
@@ -2560,13 +2563,13 @@
         <v>94514</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M26" s="7">
         <v>201</v>
@@ -2575,13 +2578,13 @@
         <v>229820</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,7 +2640,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2649,13 +2652,13 @@
         <v>8783</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H28" s="7">
         <v>27</v>
@@ -2664,13 +2667,13 @@
         <v>21534</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M28" s="7">
         <v>38</v>
@@ -2679,13 +2682,13 @@
         <v>30317</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,13 +2703,13 @@
         <v>65835</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H29" s="7">
         <v>159</v>
@@ -2715,13 +2718,13 @@
         <v>119888</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M29" s="7">
         <v>230</v>
@@ -2730,13 +2733,13 @@
         <v>185723</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2754,13 @@
         <v>480224</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H30" s="7">
         <v>780</v>
@@ -2766,13 +2769,13 @@
         <v>559295</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M30" s="7">
         <v>1300</v>
@@ -2781,13 +2784,13 @@
         <v>1039520</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>221</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,13 +2805,13 @@
         <v>285275</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H31" s="7">
         <v>455</v>
@@ -2817,13 +2820,13 @@
         <v>329519</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M31" s="7">
         <v>756</v>
@@ -2832,13 +2835,13 @@
         <v>614794</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,13 +2856,13 @@
         <v>125286</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H32" s="7">
         <v>141</v>
@@ -2868,13 +2871,13 @@
         <v>120196</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M32" s="7">
         <v>244</v>
@@ -2883,13 +2886,13 @@
         <v>245482</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2960,13 @@
         <v>34175</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H34" s="7">
         <v>80</v>
@@ -2972,13 +2975,13 @@
         <v>52406</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M34" s="7">
         <v>119</v>
@@ -2990,10 +2993,10 @@
         <v>11</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>245</v>
+        <v>159</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>246</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,13 +3011,13 @@
         <v>181828</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H35" s="7">
         <v>482</v>
@@ -3023,7 +3026,7 @@
         <v>325475</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>251</v>
@@ -3110,7 +3113,7 @@
         <v>1138918</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>265</v>
@@ -3197,7 +3200,7 @@
         <v>280</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>103</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,7 +3256,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
